--- a/biology/Botanique/Paramo_des_Andes_septentrionales/Paramo_des_Andes_septentrionales.xlsx
+++ b/biology/Botanique/Paramo_des_Andes_septentrionales/Paramo_des_Andes_septentrionales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le paramo des Andes septentrionales est une écorégion terrestre définie par le Fonds mondial pour la nature (WWF), qui couvre les régions de haute altitude de la cordillère des Andes en Colombie et en Équateur. Elle appartient au biome des prairies et brousses d'altitude de l'écozone néotropicale et se caractérise par sa végétation particulière, de type paramo sec.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
